--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">API REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/11, 11/11</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL</t>
@@ -269,7 +272,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,10 +408,10 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
@@ -473,14 +476,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">SUM(C5:F5)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
-      <c r="H5" s="8" t="n">
-        <v>45240</v>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,7 +572,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="19" t="n">
         <f aca="false">SUM(C5:C12)</f>
@@ -585,11 +588,11 @@
       </c>
       <c r="F13" s="20" t="n">
         <f aca="false">SUM(F5:F12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="21" t="n">
         <f aca="false">C13+D13+E13+F13</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
